--- a/DOM_Banner/output/dept_banner/Vijay Chandiramani_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Vijay Chandiramani_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,135 +395,130 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>issn_l</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>url</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>pdf_url</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>license</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>version</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>first_page</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>last_page</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>volume</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>issue</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>issue</t>
+          <t>is_oa</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>is_oa</t>
+          <t>is_oa_anywhere</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>is_oa_anywhere</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>oa_status</t>
+          <t>oa_url</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>oa_url</t>
+          <t>any_repository_has_fulltext</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>any_repository_has_fulltext</t>
+          <t>language</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>grants</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>grants</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>cited_by_count</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>publication_year</t>
+          <t>cited_by_api_url</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>cited_by_api_url</t>
+          <t>ids</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>ids</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>doi</t>
+          <t>type</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>referenced_works</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>referenced_works</t>
+          <t>related_works</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>related_works</t>
+          <t>is_paratext</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>is_retracted</t>
         </is>
@@ -559,146 +554,141 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>IOP Conference Series: Materials Science and Engineering</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S4210189194</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1757-8981</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1088/1757-899x/1292/1/012004</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://iopscience.iop.org/article/10.1088/1757-899X/1292/1/012004/pdf</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>012004</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>012004</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1292</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>https://iopscience.iop.org/article/10.1088/1757-899X/1292/1/012004/pdf</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4388576607</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4388576607", doi = "https://doi.org/10.1088/1757-899x/1292/1/012004")</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1088/1757-899x/1292/1/012004</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>https://iopscience.iop.org/article/10.1088/1757-899X/1292/1/012004/pdf</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>012004</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>012004</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1292</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://iopscience.iop.org/article/10.1088/1757-899X/1292/1/012004/pdf</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4388576607</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4388576607", doi = "https://doi.org/10.1088/1757-899x/1292/1/012004")</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/1757-899x/1292/1/012004</t>
+          <t>article</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W1641147556", "https://openalex.org/W1789658038", "https://openalex.org/W1822001265", "https://openalex.org/W1995875735", "https://openalex.org/W1996814013", "https://openalex.org/W2010745100", "https://openalex.org/W2040176476", "https://openalex.org/W2090252028", "https://openalex.org/W2111294402", "https://openalex.org/W2123699080", "https://openalex.org/W2138971019", "https://openalex.org/W2151251278", "https://openalex.org/W2397253692", "https://openalex.org/W2519945751", 
 "https://openalex.org/W2916162925", "https://openalex.org/W2958793737", "https://openalex.org/W3007035358", "https://openalex.org/W3100001126", "https://openalex.org/W3155643996", "https://openalex.org/W4280563591", "https://openalex.org/W4290643239")</t>
         </is>
       </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W1640559846", "https://openalex.org/W2899084033", "https://openalex.org/W2748952813", "https://openalex.org/W2258669850", "https://openalex.org/W1513401665", "https://openalex.org/W4283263216", "https://openalex.org/W3160851599", "https://openalex.org/W2527333706", "https://openalex.org/W2808090143", "https://openalex.org/W2078285315")</t>
+        </is>
+      </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W1640559846", "https://openalex.org/W2899084033", "https://openalex.org/W2748952813", "https://openalex.org/W2258669850", "https://openalex.org/W1513401665", "https://openalex.org/W4283263216", "https://openalex.org/W3160851599", "https://openalex.org/W2527333706", "https://openalex.org/W2808090143", "https://openalex.org/W2078285315")</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>

--- a/DOM_Banner/output/dept_banner/Vijay Chandiramani_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Vijay Chandiramani_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,337 +360,154 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>url</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>license</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>V.A. Chandiramani, Andrew T. Conn, Helmut Hauser</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388576607</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Quantifying embodiment towards building better robots based on muscle-driven models</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5018157428", "https://openalex.org/A5055756329", "https://openalex.org/A5021023927"), au_display_name = c("V.A. Chandiramani", "Andrew T. Conn", "Helmut Hauser"), au_orcid = c(NA, "https://orcid.org/0000-0003-2732-4200", "https://orcid.org/0000-0001-5634-7298"), author_position = c("first", "middle", "last"), au_affiliation_raw = c("Bristol Robotics Laboratory (BRL), T Block Frenchay Campus, Bristol, BS16 1QY", "Bristol Robotics Laboratory (BRL), T Block Frenchay Campus, Bristol, BS16 1QY", 
-"Bristol Robotics Laboratory (BRL), T Block Frenchay Campus, Bristol, BS16 1QY"), institution_id = c("https://openalex.org/I4210161128", "https://openalex.org/I4210161128", "https://openalex.org/I4210161128"), institution_display_name = c("Bristol Robotics Laboratory", "Bristol Robotics Laboratory", "Bristol Robotics Laboratory"), institution_ror = c("https://ror.org/056sbyc67", "https://ror.org/056sbyc67", "https://ror.org/056sbyc67"), institution_country_code = c("GB", "GB", "GB"), institution_type = c("facility", 
-"facility", "facility"), institution_lineage = c("https://openalex.org/I4210161128", "https://openalex.org/I4210161128", "https://openalex.org/I4210161128"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Abstract In recent years, researchers have investigated different methods to quantify embodiment for a variety of robotic systems including robotic arms, grippers and legged robots. This paper will discuss some of these methods, focusing on their potential contribution to designing robotic systems based on muscle-driven models. We start with the definition of embodiment based on the relational dynamics between the system and its environments by drawing upon the idea of mutual perturbation and structural coupling between the two. We will discuss how such an understanding can provide potential approaches to quantify embodiment. These includes two information-theoretic measures which are particularly suitable for muscle-driven models. The two methods are based on (i) comparing the controller and behaviour complexity and (ii) Conditional Mutual Information, which compares the difference in distribution of the action conditional on the actuated state and purely on its morphological properties. These methods were used on muscle-driven, biologically realistic hopping models to quantify embodiment at different stages of the hopping gait. The results clearly demonstrate the contribution of morphology of the muscle fibers at different points in the hopping cycle. Furthermore, these methods have been used in latter studies to measure the contribution of embodiment across different levels in a hierarchical control system of a neuro-musculoskeletal model and also to quantify the effects of information cost during various actions in a muscle-driven robotic system. We discuss the practical implications as well as limitations and the future work in the application of these quantification methods.</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>IOP Conference Series: Materials Science and Engineering</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>IOP Conference Series: Materials Science and Engineering</t>
+          <t>https://doi.org/10.1088/1757-899x/1292/1/012004</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4210189194</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1757-8981</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1088/1757-899x/1292/1/012004</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>https://iopscience.iop.org/article/10.1088/1757-899X/1292/1/012004/pdf</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>012004</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>012004</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1292</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>https://iopscience.iop.org/article/10.1088/1757-899X/1292/1/012004/pdf</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4388576607</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4388576607", doi = "https://doi.org/10.1088/1757-899x/1292/1/012004")</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1088/1757-899x/1292/1/012004</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1641147556", "https://openalex.org/W1789658038", "https://openalex.org/W1822001265", "https://openalex.org/W1995875735", "https://openalex.org/W1996814013", "https://openalex.org/W2010745100", "https://openalex.org/W2040176476", "https://openalex.org/W2090252028", "https://openalex.org/W2111294402", "https://openalex.org/W2123699080", "https://openalex.org/W2138971019", "https://openalex.org/W2151251278", "https://openalex.org/W2397253692", "https://openalex.org/W2519945751", 
-"https://openalex.org/W2916162925", "https://openalex.org/W2958793737", "https://openalex.org/W3007035358", "https://openalex.org/W3100001126", "https://openalex.org/W3155643996", "https://openalex.org/W4280563591", "https://openalex.org/W4290643239")</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1640559846", "https://openalex.org/W2899084033", "https://openalex.org/W2748952813", "https://openalex.org/W2258669850", "https://openalex.org/W1513401665", "https://openalex.org/W4283263216", "https://openalex.org/W3160851599", "https://openalex.org/W2527333706", "https://openalex.org/W2808090143", "https://openalex.org/W2078285315")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Vijay Chandiramani_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Vijay Chandiramani_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,70 +365,75 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -442,70 +447,75 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Bristol Robotics Laboratory (BRL), T Block Frenchay Campus, Bristol, BS16 1QY; Bristol Robotics Laboratory (BRL), T Block Frenchay Campus, Bristol, BS16 1QY; Bristol Robotics Laboratory (BRL), T Block Frenchay Campus, Bristol, BS16 1QY</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388576607</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Quantifying embodiment towards building better robots based on muscle-driven models</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>IOP Conference Series: Materials Science and Engineering</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1088/1757-899x/1292/1/012004</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1088/1757-899x/1292/1/012004</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
